--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43615,6 +43615,41 @@
         <v>224200</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>24500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43650,6 +43650,41 @@
         <v>24500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>480100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43685,6 +43685,41 @@
         <v>480100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>101900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43720,6 +43720,41 @@
         <v>101900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>64500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43755,6 +43755,41 @@
         <v>64500</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1085200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43790,6 +43790,41 @@
         <v>1085200</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>707600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43825,6 +43825,41 @@
         <v>707600</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>318900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43860,6 +43860,41 @@
         <v>318900</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>201300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43895,6 +43895,41 @@
         <v>201300</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>506100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43930,6 +43930,41 @@
         <v>506100</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>707900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43965,6 +43965,41 @@
         <v>707900</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>189800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44000,6 +44000,41 @@
         <v>189800</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>575600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44035,6 +44035,76 @@
         <v>575600</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>185100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>215300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44105,6 +44105,76 @@
         <v>215300</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>161300</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>178900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44175,6 +44175,41 @@
         <v>178900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>52200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44210,6 +44210,41 @@
         <v>52200</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>74000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44245,6 +44245,41 @@
         <v>74000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>46200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44280,6 +44280,41 @@
         <v>46200</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>132500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44315,6 +44315,76 @@
         <v>132500</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>48100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>153300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44385,6 +44385,41 @@
         <v>153300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>82700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44420,6 +44420,41 @@
         <v>82700</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>137500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1971"/>
+  <dimension ref="A1:I1972"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70005,6 +70005,41 @@
         <v>137500</v>
       </c>
     </row>
+    <row r="1972">
+      <c r="A1972" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1972" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1972" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1972" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1972" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F1972" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G1972" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1972" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I1972" t="n">
+        <v>500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1972"/>
+  <dimension ref="A1:I1973"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70040,6 +70040,41 @@
         <v>500000</v>
       </c>
     </row>
+    <row r="1973">
+      <c r="A1973" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B1973" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C1973" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1973" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1973" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="F1973" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="G1973" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H1973" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I1973" t="n">
+        <v>133100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1973"/>
+  <dimension ref="A1:I1974"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70075,6 +70075,41 @@
         <v>133100</v>
       </c>
     </row>
+    <row r="1974">
+      <c r="A1974" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1974" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1974" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1974" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1974" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="F1974" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G1974" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H1974" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I1974" t="n">
+        <v>645900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1974"/>
+  <dimension ref="A1:I1975"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70110,6 +70110,41 @@
         <v>645900</v>
       </c>
     </row>
+    <row r="1975">
+      <c r="A1975" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B1975" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C1975" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1975" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1975" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F1975" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="G1975" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1975" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I1975" t="n">
+        <v>259400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1975"/>
+  <dimension ref="A1:I1976"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70145,6 +70145,41 @@
         <v>259400</v>
       </c>
     </row>
+    <row r="1976">
+      <c r="A1976" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B1976" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C1976" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1976" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1976" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1976" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1976" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1976" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1976" t="n">
+        <v>111200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1976"/>
+  <dimension ref="A1:I1977"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70180,6 +70180,41 @@
         <v>111200</v>
       </c>
     </row>
+    <row r="1977">
+      <c r="A1977" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1977" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1977" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1977" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1977" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="F1977" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G1977" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="H1977" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1977" t="n">
+        <v>14100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1977"/>
+  <dimension ref="A1:I1978"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70215,6 +70215,41 @@
         <v>14100</v>
       </c>
     </row>
+    <row r="1978">
+      <c r="A1978" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1978" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1978" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1978" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1978" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F1978" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="G1978" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H1978" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="I1978" t="n">
+        <v>279900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1978"/>
+  <dimension ref="A1:I1979"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70250,6 +70250,41 @@
         <v>279900</v>
       </c>
     </row>
+    <row r="1979">
+      <c r="A1979" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B1979" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C1979" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1979" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1979" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F1979" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="G1979" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1979" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1979" t="n">
+        <v>208100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1979"/>
+  <dimension ref="A1:I1980"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70285,6 +70285,41 @@
         <v>208100</v>
       </c>
     </row>
+    <row r="1980">
+      <c r="A1980" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B1980" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C1980" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1980" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1980" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="F1980" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G1980" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1980" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1980" t="n">
+        <v>3500000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1980"/>
+  <dimension ref="A1:I1981"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70320,6 +70320,41 @@
         <v>3500000</v>
       </c>
     </row>
+    <row r="1981">
+      <c r="A1981" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1981" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1981" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1981" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1981" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1981" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G1981" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1981" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1981" t="n">
+        <v>229900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1981"/>
+  <dimension ref="A1:I1982"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70355,6 +70355,41 @@
         <v>229900</v>
       </c>
     </row>
+    <row r="1982">
+      <c r="A1982" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1982" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1982" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1982" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1982" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="F1982" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="G1982" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1982" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1982" t="n">
+        <v>137800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1982"/>
+  <dimension ref="A1:I1983"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70390,6 +70390,41 @@
         <v>137800</v>
       </c>
     </row>
+    <row r="1983">
+      <c r="A1983" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1983" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1983" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1983" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1983" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1983" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G1983" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="H1983" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I1983" t="n">
+        <v>3663300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1983"/>
+  <dimension ref="A1:I1984"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70425,6 +70425,41 @@
         <v>3663300</v>
       </c>
     </row>
+    <row r="1984">
+      <c r="A1984" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B1984" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C1984" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1984" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1984" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F1984" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G1984" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="H1984" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1984" t="n">
+        <v>922800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1984"/>
+  <dimension ref="A1:I1985"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70460,6 +70460,41 @@
         <v>922800</v>
       </c>
     </row>
+    <row r="1985">
+      <c r="A1985" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1985" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1985" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1985" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1985" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F1985" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="G1985" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1985" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="I1985" t="n">
+        <v>185800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7184.xlsx
+++ b/data/7184.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1985"/>
+  <dimension ref="A1:I1986"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -70495,6 +70495,41 @@
         <v>185800</v>
       </c>
     </row>
+    <row r="1986">
+      <c r="A1986" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B1986" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C1986" t="inlineStr">
+        <is>
+          <t>7184</t>
+        </is>
+      </c>
+      <c r="D1986" t="inlineStr">
+        <is>
+          <t>G3</t>
+        </is>
+      </c>
+      <c r="E1986" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F1986" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G1986" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1986" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I1986" t="n">
+        <v>74200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
